--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_0.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_0.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1618700808900957</v>
+        <v>-0.4469409842161907</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2257987344760481</v>
+        <v>-0.04918934452759949</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1907690236157245</v>
+        <v>-5.404944135831724</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03621049982045754</v>
+        <v>-0.6835525857389761</v>
       </c>
       <c r="F2" t="n">
-        <v>1.285847783088684</v>
+        <v>1.601337432861328</v>
       </c>
       <c r="G2" t="n">
-        <v>1.709220290184021</v>
+        <v>2.265443325042725</v>
       </c>
       <c r="H2" t="n">
-        <v>2.162390232086182</v>
+        <v>2.090804100036621</v>
       </c>
       <c r="I2" t="n">
-        <v>1.922476649284363</v>
+        <v>2.183259963989258</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01065035474156018</v>
+        <v>-0.245215902882957</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3624592633824377</v>
+        <v>0.07559084591087306</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02148867248315378</v>
+        <v>-4.817674746363592</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01261347811771696</v>
+        <v>-0.5039948414662416</v>
       </c>
       <c r="F3" t="n">
-        <v>1.118492245674133</v>
+        <v>1.378087162971497</v>
       </c>
       <c r="G3" t="n">
-        <v>1.899775981903076</v>
+        <v>1.99601411819458</v>
       </c>
       <c r="H3" t="n">
-        <v>1.854983568191528</v>
+        <v>1.89909827709198</v>
       </c>
       <c r="I3" t="n">
-        <v>1.878697276115417</v>
+        <v>1.950406432151794</v>
       </c>
     </row>
     <row r="4">
@@ -544,617 +544,617 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01418250241445906</v>
+        <v>0.1491667311575263</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2905327935158788</v>
+        <v>0.3762570554252721</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05237123245419184</v>
+        <v>-3.680254514736075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001780240966547497</v>
+        <v>-0.1042273170938899</v>
       </c>
       <c r="F4" t="n">
-        <v>1.091009497642517</v>
+        <v>0.9416216611862183</v>
       </c>
       <c r="G4" t="n">
-        <v>1.799483776092529</v>
+        <v>1.346805810928345</v>
       </c>
       <c r="H4" t="n">
-        <v>1.911065101623535</v>
+        <v>1.527803421020508</v>
       </c>
       <c r="I4" t="n">
-        <v>1.851992607116699</v>
+        <v>1.431981205940247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_10</t>
+          <t>model_4_0_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01526377341712359</v>
+        <v>0.4752361594400787</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3070885712992362</v>
+        <v>0.3004030442834689</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03888504738915444</v>
+        <v>-4.227368003641288</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001404794171180002</v>
+        <v>-0.2359013007504949</v>
       </c>
       <c r="F5" t="n">
-        <v>1.089812755584717</v>
+        <v>0.5807589292526245</v>
       </c>
       <c r="G5" t="n">
-        <v>1.822568655014038</v>
+        <v>1.510592341423035</v>
       </c>
       <c r="H5" t="n">
-        <v>1.886574625968933</v>
+        <v>1.706400990486145</v>
       </c>
       <c r="I5" t="n">
-        <v>1.852689146995544</v>
+        <v>1.602738380432129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_12</t>
+          <t>model_4_0_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01526584448615087</v>
+        <v>0.4753079634901229</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3072558581993627</v>
+        <v>0.3007357692109894</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0387579118164274</v>
+        <v>-4.225066096611656</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00139682702845112</v>
+        <v>-0.2353345622279057</v>
       </c>
       <c r="F6" t="n">
-        <v>1.089810609817505</v>
+        <v>0.5806794762611389</v>
       </c>
       <c r="G6" t="n">
-        <v>1.822802066802979</v>
+        <v>1.509873747825623</v>
       </c>
       <c r="H6" t="n">
-        <v>1.886343955993652</v>
+        <v>1.705649495124817</v>
       </c>
       <c r="I6" t="n">
-        <v>1.852704048156738</v>
+        <v>1.602003335952759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_9</t>
+          <t>model_4_0_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01527527658961092</v>
+        <v>0.4756795257024039</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.306804921719076</v>
+        <v>0.3033036057699519</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03906603274468634</v>
+        <v>-4.234113784528622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001434302015346778</v>
+        <v>-0.2341426202555477</v>
       </c>
       <c r="F7" t="n">
-        <v>1.089800119400024</v>
+        <v>0.5802683234214783</v>
       </c>
       <c r="G7" t="n">
-        <v>1.822172999382019</v>
+        <v>1.504329323768616</v>
       </c>
       <c r="H7" t="n">
-        <v>1.886903285980225</v>
+        <v>1.708603024482727</v>
       </c>
       <c r="I7" t="n">
-        <v>1.852634429931641</v>
+        <v>1.600457549095154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_16</t>
+          <t>model_4_0_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01527693238972916</v>
+        <v>0.4773026590226335</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3073360121642255</v>
+        <v>0.3059693294911021</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03867983174047174</v>
+        <v>-4.214797434612629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001400888052488058</v>
+        <v>-0.2295050169766086</v>
       </c>
       <c r="F8" t="n">
-        <v>1.089798212051392</v>
+        <v>0.5784719586372375</v>
       </c>
       <c r="G8" t="n">
-        <v>1.822913646697998</v>
+        <v>1.498573184013367</v>
       </c>
       <c r="H8" t="n">
-        <v>1.886201977729797</v>
+        <v>1.702297449111938</v>
       </c>
       <c r="I8" t="n">
-        <v>1.852696418762207</v>
+        <v>1.594443321228027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_14</t>
+          <t>model_4_0_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01527720788505105</v>
+        <v>0.4782241404492402</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3072684197523827</v>
+        <v>0.3084251855817413</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03871933520601267</v>
+        <v>-4.208447730777017</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001409597772345395</v>
+        <v>-0.2265879156132748</v>
       </c>
       <c r="F9" t="n">
-        <v>1.089797973632812</v>
+        <v>0.5774521231651306</v>
       </c>
       <c r="G9" t="n">
-        <v>1.822819590568542</v>
+        <v>1.493270516395569</v>
       </c>
       <c r="H9" t="n">
-        <v>1.886273741722107</v>
+        <v>1.700224637985229</v>
       </c>
       <c r="I9" t="n">
-        <v>1.852680206298828</v>
+        <v>1.590660572052002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_13</t>
+          <t>model_4_0_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0152779003506619</v>
+        <v>0.4823600247453342</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3072361312534231</v>
+        <v>0.3089012496183828</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.03873448106243393</v>
+        <v>-4.096173589896254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001415457245665941</v>
+        <v>-0.212868970808445</v>
       </c>
       <c r="F10" t="n">
-        <v>1.089797139167786</v>
+        <v>0.572874903678894</v>
       </c>
       <c r="G10" t="n">
-        <v>1.822774291038513</v>
+        <v>1.492242693901062</v>
       </c>
       <c r="H10" t="n">
-        <v>1.886301279067993</v>
+        <v>1.66357433795929</v>
       </c>
       <c r="I10" t="n">
-        <v>1.852669477462769</v>
+        <v>1.572869539260864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_11</t>
+          <t>model_4_0_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0152797385844069</v>
+        <v>0.4850507552359519</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3071042687877439</v>
+        <v>0.3150867357077864</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0388172441351371</v>
+        <v>-4.072498595822275</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00142980196487652</v>
+        <v>-0.2046116551664421</v>
       </c>
       <c r="F11" t="n">
-        <v>1.089795231819153</v>
+        <v>0.5698970556259155</v>
       </c>
       <c r="G11" t="n">
-        <v>1.822590708732605</v>
+        <v>1.478886723518372</v>
       </c>
       <c r="H11" t="n">
-        <v>1.886451601982117</v>
+        <v>1.655845999717712</v>
       </c>
       <c r="I11" t="n">
-        <v>1.852642774581909</v>
+        <v>1.562161326408386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_8</t>
+          <t>model_4_0_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01528494484574083</v>
+        <v>0.4856520956371132</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.306293692990286</v>
+        <v>0.3173974103583042</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03944094622023142</v>
+        <v>-4.073668996871977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001465021877201544</v>
+        <v>-0.2027133783826636</v>
       </c>
       <c r="F12" t="n">
-        <v>1.089789390563965</v>
+        <v>0.5692315697669983</v>
       </c>
       <c r="G12" t="n">
-        <v>1.821460247039795</v>
+        <v>1.473897337913513</v>
       </c>
       <c r="H12" t="n">
-        <v>1.887584209442139</v>
+        <v>1.656228065490723</v>
       </c>
       <c r="I12" t="n">
-        <v>1.852577567100525</v>
+        <v>1.559699654579163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_15</t>
+          <t>model_4_0_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01528636272097206</v>
+        <v>0.4866020189877961</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3072474549371715</v>
+        <v>0.3213710370959386</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03870558379921851</v>
+        <v>-4.07831827316657</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001424262105634067</v>
+        <v>-0.1997613887951444</v>
       </c>
       <c r="F13" t="n">
-        <v>1.089787721633911</v>
+        <v>0.56818026304245</v>
       </c>
       <c r="G13" t="n">
-        <v>1.822790384292603</v>
+        <v>1.465317368507385</v>
       </c>
       <c r="H13" t="n">
-        <v>1.886248826980591</v>
+        <v>1.657745838165283</v>
       </c>
       <c r="I13" t="n">
-        <v>1.852653026580811</v>
+        <v>1.555871367454529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_18</t>
+          <t>model_4_0_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01529293705632839</v>
+        <v>0.4883117076712583</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3072785180346078</v>
+        <v>0.3300835832279264</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03867708092061628</v>
+        <v>-4.096381049882757</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001425044486880966</v>
+        <v>-0.1942215934177445</v>
       </c>
       <c r="F14" t="n">
-        <v>1.089780569076538</v>
+        <v>0.5662881731987</v>
       </c>
       <c r="G14" t="n">
-        <v>1.82283353805542</v>
+        <v>1.446505069732666</v>
       </c>
       <c r="H14" t="n">
-        <v>1.886196970939636</v>
+        <v>1.663642048835754</v>
       </c>
       <c r="I14" t="n">
-        <v>1.852651596069336</v>
+        <v>1.548687219619751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_17</t>
+          <t>model_4_0_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01529347853048013</v>
+        <v>0.4965965316860412</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3072560642140569</v>
+        <v>0.3558906665504805</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03868677975626222</v>
+        <v>-4.060673557935568</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001429509280587604</v>
+        <v>-0.167243232152561</v>
       </c>
       <c r="F15" t="n">
-        <v>1.08977997303009</v>
+        <v>0.5571193099021912</v>
       </c>
       <c r="G15" t="n">
-        <v>1.822802186012268</v>
+        <v>1.39078164100647</v>
       </c>
       <c r="H15" t="n">
-        <v>1.886214733123779</v>
+        <v>1.651985883712769</v>
       </c>
       <c r="I15" t="n">
-        <v>1.852643132209778</v>
+        <v>1.513701438903809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_19</t>
+          <t>model_4_0_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01530053230559447</v>
+        <v>0.4992950925907543</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3072561972033696</v>
+        <v>0.3410794655955914</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03867062357775009</v>
+        <v>-3.843486047120784</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001436886743610089</v>
+        <v>-0.1545715891703638</v>
       </c>
       <c r="F16" t="n">
-        <v>1.08977210521698</v>
+        <v>0.5541328191757202</v>
       </c>
       <c r="G16" t="n">
-        <v>1.822802424430847</v>
+        <v>1.422762393951416</v>
       </c>
       <c r="H16" t="n">
-        <v>1.88618540763855</v>
+        <v>1.581087946891785</v>
       </c>
       <c r="I16" t="n">
-        <v>1.852629661560059</v>
+        <v>1.497268557548523</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_20</t>
+          <t>model_4_0_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01530085112822033</v>
+        <v>0.502321120644556</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.307259159184087</v>
+        <v>0.3615855782561286</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03867274538235455</v>
+        <v>-3.756325756400034</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00143471954519403</v>
+        <v>-0.1261707418013347</v>
       </c>
       <c r="F17" t="n">
-        <v>1.089771747589111</v>
+        <v>0.5507838726043701</v>
       </c>
       <c r="G17" t="n">
-        <v>1.822806477546692</v>
+        <v>1.378484845161438</v>
       </c>
       <c r="H17" t="n">
-        <v>1.886189103126526</v>
+        <v>1.552635788917542</v>
       </c>
       <c r="I17" t="n">
-        <v>1.852633714675903</v>
+        <v>1.460437774658203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_21</t>
+          <t>model_4_0_4</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01531196346999619</v>
+        <v>0.5407184309919975</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3072053299786959</v>
+        <v>0.7318735216070309</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03867890732140133</v>
+        <v>-3.428040368763111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001453310548856002</v>
+        <v>0.2391189596396813</v>
       </c>
       <c r="F18" t="n">
-        <v>1.089759469032288</v>
+        <v>0.5082893371582031</v>
       </c>
       <c r="G18" t="n">
-        <v>1.822731494903564</v>
+        <v>0.5789473056793213</v>
       </c>
       <c r="H18" t="n">
-        <v>1.886200308799744</v>
+        <v>1.44547176361084</v>
       </c>
       <c r="I18" t="n">
-        <v>1.852599143981934</v>
+        <v>0.9867237210273743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_7</t>
+          <t>model_4_0_3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01531459418734982</v>
+        <v>0.5468175804075355</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3050681691641628</v>
+        <v>0.7918706708724604</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04029444221849854</v>
+        <v>-3.125347516395973</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001559502208226093</v>
+        <v>0.3278616268183112</v>
       </c>
       <c r="F19" t="n">
-        <v>1.089756608009338</v>
+        <v>0.501539409160614</v>
       </c>
       <c r="G19" t="n">
-        <v>1.819751501083374</v>
+        <v>0.4493995308876038</v>
       </c>
       <c r="H19" t="n">
-        <v>1.889134168624878</v>
+        <v>1.346661806106567</v>
       </c>
       <c r="I19" t="n">
-        <v>1.852402210235596</v>
+        <v>0.871640682220459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_6</t>
+          <t>model_4_0_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01532055292598122</v>
+        <v>0.5680471648867598</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3048456216424278</v>
+        <v>0.6780351653490481</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.04045624735277253</v>
+        <v>-3.631805924194773</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00157354432164647</v>
+        <v>0.1675242724788083</v>
       </c>
       <c r="F20" t="n">
-        <v>1.089749932289124</v>
+        <v>0.4780445098876953</v>
       </c>
       <c r="G20" t="n">
-        <v>1.819441318511963</v>
+        <v>0.6951968669891357</v>
       </c>
       <c r="H20" t="n">
-        <v>1.889428019523621</v>
+        <v>1.511988043785095</v>
       </c>
       <c r="I20" t="n">
-        <v>1.852376103401184</v>
+        <v>1.079568862915039</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_3</t>
+          <t>model_4_0_7</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01533647671485017</v>
+        <v>0.5814784692165009</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2985462203948082</v>
+        <v>0.5785695699171833</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0449286198948633</v>
+        <v>-3.430415802120319</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002019967234244247</v>
+        <v>0.1037029044906984</v>
       </c>
       <c r="F21" t="n">
-        <v>1.08973228931427</v>
+        <v>0.4631800055503845</v>
       </c>
       <c r="G21" t="n">
-        <v>1.810657501220703</v>
+        <v>0.9099661707878113</v>
       </c>
       <c r="H21" t="n">
-        <v>1.897549629211426</v>
+        <v>1.446247100830078</v>
       </c>
       <c r="I21" t="n">
-        <v>1.851547837257385</v>
+        <v>1.162333607673645</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_5</t>
+          <t>model_4_0_8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01534857448648541</v>
+        <v>0.5824534393935368</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3014560036974538</v>
+        <v>0.5628807347570158</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04289061689225138</v>
+        <v>-3.324092744304412</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001800941588483984</v>
+        <v>0.1024682123114927</v>
       </c>
       <c r="F22" t="n">
-        <v>1.08971893787384</v>
+        <v>0.462101012468338</v>
       </c>
       <c r="G22" t="n">
-        <v>1.814714670181274</v>
+        <v>0.9438420534133911</v>
       </c>
       <c r="H22" t="n">
-        <v>1.893848657608032</v>
+        <v>1.411539435386658</v>
       </c>
       <c r="I22" t="n">
-        <v>1.851954221725464</v>
+        <v>1.163934707641602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_0_4</t>
+          <t>model_4_0_6</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01534904568627116</v>
+        <v>0.5887930217554078</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3001483717353854</v>
+        <v>0.6079355755216829</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04380648079118554</v>
+        <v>-3.205099266256981</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001899351070257072</v>
+        <v>0.1562788591259082</v>
       </c>
       <c r="F23" t="n">
-        <v>1.089718461036682</v>
+        <v>0.4550849497318268</v>
       </c>
       <c r="G23" t="n">
-        <v>1.812891483306885</v>
+        <v>0.8465580940246582</v>
       </c>
       <c r="H23" t="n">
-        <v>1.895511746406555</v>
+        <v>1.372695565223694</v>
       </c>
       <c r="I23" t="n">
-        <v>1.851771473884583</v>
+        <v>1.094152212142944</v>
       </c>
     </row>
   </sheetData>
